--- a/biology/Virologie/Ateline_alphaherpesvirus_1/Ateline_alphaherpesvirus_1.xlsx
+++ b/biology/Virologie/Ateline_alphaherpesvirus_1/Ateline_alphaherpesvirus_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ateline alphaherpesvirus 1 est une espèce de virus du genre Simplexvirus de la sous-famille Alphaherpesvirinae, famille Herpesviridae, et de l'ordre des Herpesvirales connue sous l'abréviation usuelle HSVA-1.
 </t>
@@ -511,11 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Ateline alphaherpesvirus 1 est le nom officiel selon l'ICTV et son acronyme officiel est AtHV-1[2],[3].
-Synonymes
-L'espèce Ateline alphaherpesvirus 1 est également connue sous les noms suivants : herpesvirus ateles (type 1 / souche lennette), Spider monkey herpesvirus, Ateline alphaherpesvirus 1, Ateline herpesvirus 1, Spider monkey alpha-herpesvirus type 1 et herpesvirus ateles 1 HVA 1[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ateline alphaherpesvirus 1 est le nom officiel selon l'ICTV et son acronyme officiel est AtHV-1,.
 </t>
         </is>
       </c>
@@ -541,12 +553,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ateline alphaherpesvirus 1 est également connue sous les noms suivants : herpesvirus ateles (type 1 / souche lennette), Spider monkey herpesvirus, Ateline alphaherpesvirus 1, Ateline herpesvirus 1, Spider monkey alpha-herpesvirus type 1 et herpesvirus ateles 1 HVA 1.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ateline_alphaherpesvirus_1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ateline_alphaherpesvirus_1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Hôte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôte naturel de cette espèce est le signe araignée (Ateles geoffroyi) du Guatemala chez qui il a été isolé en 1972[2],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôte naturel de cette espèce est le signe araignée (Ateles geoffroyi) du Guatemala chez qui il a été isolé en 1972,.
 </t>
         </is>
       </c>
